--- a/Esercizio 1/Res/res con grafici.xlsx
+++ b/Esercizio 1/Res/res con grafici.xlsx
@@ -1,29 +1,86 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leobartowski/Desktop/ASSSC/Esercizio 1/Res/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94CE65DA-7D8A-C242-B077-FFAC766F3375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="3460" yWindow="1540" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Foglio1" sheetId="1" r:id="rId4"/>
+    <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Foglio1!$A$4:$A$14</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Foglio1!$D$4:$D$14</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Foglio1!$A$4:$A$14</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Foglio1!$D$4:$D$14</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Foglio1!$A$4:$A$14</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Foglio1!$D$4:$D$14</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Foglio1!$A$4:$A$14</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Foglio1!$D$4:$D$14</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Foglio1!$A$4:$A$14</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Foglio1!$D$4:$D$14</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Foglio1!$A$4:$A$14</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Foglio1!$D$4:$D$14</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Foglio1!$A$4:$A$14</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Foglio1!$D$4:$D$14</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Foglio1!$A$4:$A$14</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Foglio1!$D$4:$D$14</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Foglio1!$A$4:$A$14</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Foglio1!$D$4:$D$14</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="A8">
+    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
-        <t xml:space="preserve">Può essere un buon punto di Knee</t>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>Può essere un buon punto di Knee</t>
+        </r>
       </text>
     </comment>
-    <comment authorId="0" ref="A10">
+    <comment ref="A9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
-        <t xml:space="preserve">In corrispondenza di 500 ho la potenza massima ed un drop significativo della potenza, questo mi dice che 500 è un ottimo punto di USABLE</t>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>In corrispondenza di 500 ho la potenza massima ed un drop significativo della potenza, questo mi dice che 500 è un ottimo punto di USABLE</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -48,55 +105,60 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="#,##0.000"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="[h].mm.ss"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="[h]\.mm\.ss"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="20.0"/>
+      <sz val="20"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="&quot;Liberation Sans&quot;"/>
     </font>
     <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -104,19 +166,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor theme="7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCC0000"/>
-        <bgColor rgb="FFCC0000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -124,133 +174,292 @@
         <bgColor theme="0"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF73FB79"/>
+        <bgColor rgb="FFCC0000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
-    <border/>
+  <borders count="1">
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="13">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="165" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="165" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF73FB79"/>
+    </mruColors>
+  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
         <c:rich>
-          <a:bodyPr/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr b="1">
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
                 <a:solidFill>
-                  <a:srgbClr val="757575"/>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="1">
-                <a:solidFill>
-                  <a:srgbClr val="757575"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:rPr>
+              <a:rPr lang="it-IT"/>
               <a:t>THROUGHPUT</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
       <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln cmpd="sng">
+            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:srgbClr val="4472C4"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
+              <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>Foglio1!$A$5:$A$15</c:f>
-            </c:strRef>
+            <c:numRef>
+              <c:f>Foglio1!$A$4:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$5:$C$15</c:f>
-              <c:numCache/>
+              <c:f>Foglio1!$C$4:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>50.0717133333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100.05314</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>125.00014</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>149.94499999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>185.001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>187.465826666667</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>172.50650999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>166.11147333333301</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>156.17406</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>137.03200666666601</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>137.03200666666601</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7494-AE43-9132-31E35D83C087}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:dropLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="35000"/>
+                  <a:lumOff val="65000"/>
+                  <a:alpha val="33000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:dropLines>
+        <c:smooth val="0"/>
         <c:axId val="95196539"/>
         <c:axId val="1731733690"/>
       </c:lineChart>
@@ -264,50 +473,98 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr b="0">
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
-                      <a:srgbClr val="000000"/>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:r>
-                  <a:rPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:rPr>
-                  <a:t/>
-                </a:r>
+                <a:endParaRPr lang="it-IT"/>
               </a:p>
             </c:rich>
           </c:tx>
           <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:spPr/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
         <c:txPr>
-          <a:bodyPr/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr b="0">
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
                 <a:solidFill>
-                  <a:srgbClr val="000000"/>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1731733690"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="1731733690"/>
@@ -316,162 +573,349 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="B7B7B7"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="CCCCCC">
-                  <a:alpha val="0"/>
-                </a:srgbClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:minorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr/>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr b="0">
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
-                      <a:srgbClr val="000000"/>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:r>
-                  <a:rPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:rPr>
-                  <a:t/>
-                </a:r>
+                <a:endParaRPr lang="it-IT"/>
               </a:p>
             </c:rich>
           </c:tx>
           <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln/>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr b="0">
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
                 <a:solidFill>
-                  <a:srgbClr val="000000"/>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="95196539"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
+      <c:spPr>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0">
-            <a:defRPr b="0">
-              <a:solidFill>
-                <a:srgbClr val="1A1A1A"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
         <c:rich>
-          <a:bodyPr/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr b="1">
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
                 <a:solidFill>
-                  <a:srgbClr val="757575"/>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="1">
-                <a:solidFill>
-                  <a:srgbClr val="757575"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:rPr>
+              <a:rPr lang="it-IT"/>
               <a:t>ELAPSED</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
       <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln cmpd="sng">
+            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:srgbClr val="4472C4"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
+              <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>Foglio1!$A$5:$A$15</c:f>
-            </c:strRef>
+            <c:numRef>
+              <c:f>Foglio1!$A$4:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$B$5:$B$13</c:f>
-              <c:numCache/>
+              <c:f>Foglio1!$B$4:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>35.422555555555498</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39.079944444444401</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37.798625802207901</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.250172279648702</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35.153267934686298</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>117.23497717544601</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>157.20432634173099</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>136.00652195614299</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>175.51848410921301</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-830F-8C4A-9896-F6ADEA732672}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:dropLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="35000"/>
+                  <a:lumOff val="65000"/>
+                  <a:alpha val="33000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:dropLines>
+        <c:smooth val="0"/>
         <c:axId val="2139242496"/>
         <c:axId val="1183346998"/>
       </c:lineChart>
@@ -485,50 +929,98 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr b="0">
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
-                      <a:srgbClr val="000000"/>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:r>
-                  <a:rPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:rPr>
-                  <a:t/>
-                </a:r>
+                <a:endParaRPr lang="it-IT"/>
               </a:p>
             </c:rich>
           </c:tx>
           <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:spPr/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
         <c:txPr>
-          <a:bodyPr/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr b="0">
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
                 <a:solidFill>
-                  <a:srgbClr val="000000"/>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1183346998"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
         <c:axId val="1183346998"/>
@@ -537,324 +1029,2365 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="B7B7B7"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="CCCCCC">
-                  <a:alpha val="0"/>
-                </a:srgbClr>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:minorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr/>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr b="0">
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
-                      <a:srgbClr val="000000"/>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:r>
-                  <a:rPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:rPr>
-                  <a:t/>
-                </a:r>
+                <a:endParaRPr lang="it-IT"/>
               </a:p>
             </c:rich>
           </c:tx>
           <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln/>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr b="0">
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
                 <a:solidFill>
-                  <a:srgbClr val="000000"/>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2139242496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
+      <c:spPr>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0">
-            <a:defRPr b="0">
-              <a:solidFill>
-                <a:srgbClr val="1A1A1A"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
         <c:rich>
-          <a:bodyPr/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr b="1">
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
                 <a:solidFill>
-                  <a:srgbClr val="757575"/>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="1">
-                <a:solidFill>
-                  <a:srgbClr val="757575"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-              </a:rPr>
+              <a:rPr lang="it-IT"/>
               <a:t>POTENZA</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
       <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln cmpd="sng">
+            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:srgbClr val="4472C4"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
+              <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
-              <c:f>Foglio1!$A$5:$A$15</c:f>
-            </c:strRef>
+            <c:numRef>
+              <c:f>Foglio1!$A$4:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$5:$D$15</c:f>
-              <c:numCache/>
+              <c:f>Foglio1!$D$4:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1413.55451485713</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2560.2170479600959</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3307.0022347928448</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6739.0489437759716</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5262.6970654257875</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1599.0605464623259</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1097.3394563264442</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1221.3493216663369</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>889.78696911958116</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>724.67452924494637</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>630.16351772483324</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BE6D-8946-8030-F639E0F6B71A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
-        <c:axId val="829248056"/>
-        <c:axId val="334080974"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:dropLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="35000"/>
+                  <a:lumOff val="65000"/>
+                  <a:alpha val="33000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:dropLines>
+        <c:smooth val="0"/>
+        <c:axId val="95196539"/>
+        <c:axId val="1731733690"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="829248056"/>
+        <c:axId val="95196539"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="100.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr b="0">
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                     <a:solidFill>
-                      <a:srgbClr val="000000"/>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:r>
-                  <a:rPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:rPr>
-                  <a:t/>
-                </a:r>
+                <a:endParaRPr lang="it-IT"/>
               </a:p>
             </c:rich>
           </c:tx>
           <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:spPr/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr b="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="334080974"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="334080974"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
           <c:spPr>
+            <a:noFill/>
             <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="B7B7B7"/>
-              </a:solidFill>
+              <a:noFill/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:rPr>
-                  <a:t/>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln/>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr lvl="0">
-              <a:defRPr b="0">
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
                 <a:solidFill>
-                  <a:srgbClr val="000000"/>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="829248056"/>
+        <c:crossAx val="1731733690"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1731733690"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="95196539"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
+      <c:spPr>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr lvl="0">
-            <a:defRPr b="0">
-              <a:solidFill>
-                <a:srgbClr val="1A1A1A"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="230">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="0" kern="1200" spc="20" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+            <a:alpha val="33000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" spc="20" baseline="0"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="230">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="0" kern="1200" spc="20" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+            <a:alpha val="33000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" spc="20" baseline="0"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="230">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="0" kern="1200" spc="20" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="1"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+            <a:alpha val="33000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" spc="20" baseline="0"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:colOff>631825</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5181600" cy="2857500"/>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1" name="Chart 1" title="Grafico"/>
+        <xdr:cNvPr id="2" name="Chart 1" title="Grafico">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -863,7 +3396,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -872,14 +3405,20 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1304925</xdr:colOff>
+      <xdr:colOff>306036</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>74462</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5181600" cy="2857500"/>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 2" title="Grafico"/>
+        <xdr:cNvPr id="3" name="Chart 2" title="Grafico">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -888,7 +3427,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -897,15 +3436,23 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>592667</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>33867</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5181600" cy="2857500"/>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 3" title="Grafico"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="8" name="Chart 1" title="Grafico">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A42675C0-B105-C74B-AD75-FEF614C4BC14}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -913,7 +3460,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -923,7 +3470,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1113,27 +3660,29 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R996"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="188" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="17.11"/>
-    <col customWidth="1" min="2" max="2" width="20.67"/>
-    <col customWidth="1" min="3" max="3" width="22.11"/>
-    <col customWidth="1" min="4" max="4" width="14.89"/>
-    <col customWidth="1" min="5" max="21" width="8.33"/>
+    <col min="1" max="1" width="17.1640625" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="3" max="3" width="22.1640625" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" customWidth="1"/>
+    <col min="5" max="21" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:18" ht="13" customHeight="1">
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -1147,215 +3696,210 @@
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
     </row>
-    <row r="2" ht="15.75" customHeight="1"/>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="2" t="s">
+    <row r="2" spans="1:18" ht="15" hidden="1" customHeight="1"/>
+    <row r="3" spans="1:18" ht="19" customHeight="1">
+      <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
+    <row r="4" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A4" s="5">
+        <v>100</v>
+      </c>
+      <c r="B4" s="5">
+        <v>35.422555555555498</v>
+      </c>
+      <c r="C4" s="6">
+        <v>50.0717133333333</v>
+      </c>
+      <c r="D4" s="6">
+        <v>1413.55451485713</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="3">
-        <v>100.0</v>
+    <row r="5" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A5" s="5">
+        <v>200</v>
       </c>
-      <c r="B5" s="5">
-        <v>35.4225555555555</v>
+      <c r="B5" s="6">
+        <v>39.079944444444401</v>
       </c>
       <c r="C5" s="6">
-        <v>50.0717133333333</v>
+        <v>100.05314</v>
       </c>
       <c r="D5" s="6">
-        <v>1413.55451485713</v>
+        <f t="shared" ref="D5:D14" si="0">C5/(B5/1000)</f>
+        <v>2560.2170479600959</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="3">
-        <v>200.0</v>
+    <row r="6" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A6" s="5">
+        <v>250</v>
       </c>
       <c r="B6" s="7">
-        <v>39.0799444444444</v>
+        <v>37.798625802207901</v>
       </c>
       <c r="C6" s="6">
-        <v>100.05314</v>
+        <v>125.00014</v>
       </c>
-      <c r="D6" s="8">
-        <f t="shared" ref="D6:D15" si="1">C6/(B6/1000)</f>
-        <v>2560.217048</v>
+      <c r="D6" s="6">
+        <f t="shared" si="0"/>
+        <v>3307.0022347928448</v>
       </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="3">
-        <v>250.0</v>
+    <row r="7" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A7" s="8">
+        <v>300</v>
       </c>
       <c r="B7" s="9">
-        <v>37.7986258022079</v>
+        <v>22.250172279648702</v>
       </c>
-      <c r="C7" s="8">
-        <v>125.00014</v>
+      <c r="C7" s="9">
+        <v>149.94499999999999</v>
       </c>
-      <c r="D7" s="8">
-        <f t="shared" si="1"/>
-        <v>3307.002235</v>
+      <c r="D7" s="9">
+        <f t="shared" si="0"/>
+        <v>6739.0489437759716</v>
       </c>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="10">
-        <v>300.0</v>
+    <row r="8" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A8" s="5">
+        <v>400</v>
       </c>
-      <c r="B8" s="11">
-        <v>22.2501722796487</v>
+      <c r="B8" s="6">
+        <v>35.153267934686298</v>
       </c>
-      <c r="C8" s="12">
-        <v>149.945</v>
+      <c r="C8" s="6">
+        <v>185.001</v>
       </c>
-      <c r="D8" s="12">
-        <f t="shared" si="1"/>
-        <v>6739.048944</v>
+      <c r="D8" s="6">
+        <f t="shared" si="0"/>
+        <v>5262.6970654257875</v>
       </c>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="3">
-        <v>400.0</v>
+    <row r="9" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A9" s="10">
+        <v>500</v>
       </c>
-      <c r="B9" s="7">
-        <v>35.1532679346863</v>
+      <c r="B9" s="11">
+        <v>117.23497717544601</v>
       </c>
-      <c r="C9" s="6">
-        <v>185.001</v>
+      <c r="C9" s="12">
+        <v>187.465826666667</v>
       </c>
-      <c r="D9" s="8">
-        <f t="shared" si="1"/>
-        <v>5262.697065</v>
+      <c r="D9" s="11">
+        <f t="shared" si="0"/>
+        <v>1599.0605464623259</v>
       </c>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="13">
-        <v>500.0</v>
+    <row r="10" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A10" s="5">
+        <v>600</v>
       </c>
-      <c r="B10" s="14">
-        <v>117.234977175446</v>
+      <c r="B10" s="6">
+        <v>157.20432634173099</v>
       </c>
-      <c r="C10" s="15">
-        <v>187.465826666667</v>
+      <c r="C10" s="6">
+        <v>172.50650999999999</v>
       </c>
-      <c r="D10" s="16">
-        <f t="shared" si="1"/>
-        <v>1599.060546</v>
+      <c r="D10" s="6">
+        <f t="shared" si="0"/>
+        <v>1097.3394563264442</v>
       </c>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="3">
-        <v>600.0</v>
+    <row r="11" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A11" s="5">
+        <v>700</v>
       </c>
-      <c r="B11" s="7">
-        <v>157.204326341731</v>
+      <c r="B11" s="6">
+        <v>136.00652195614299</v>
       </c>
       <c r="C11" s="6">
-        <v>172.50651</v>
+        <v>166.11147333333301</v>
       </c>
-      <c r="D11" s="8">
-        <f t="shared" si="1"/>
-        <v>1097.339456</v>
+      <c r="D11" s="6">
+        <f t="shared" si="0"/>
+        <v>1221.3493216663369</v>
       </c>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="3">
-        <v>700.0</v>
+    <row r="12" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A12" s="5">
+        <v>800</v>
       </c>
-      <c r="B12" s="17">
-        <v>136.006521956143</v>
+      <c r="B12" s="6">
+        <v>175.51848410921301</v>
       </c>
-      <c r="C12" s="8">
-        <v>166.111473333333</v>
+      <c r="C12" s="6">
+        <v>156.17406</v>
       </c>
-      <c r="D12" s="8">
-        <f t="shared" si="1"/>
-        <v>1221.349322</v>
+      <c r="D12" s="6">
+        <f t="shared" si="0"/>
+        <v>889.78696911958116</v>
       </c>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="3">
-        <v>800.0</v>
+    <row r="13" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A13" s="5">
+        <v>900</v>
       </c>
-      <c r="B13" s="17">
-        <v>175.518484109213</v>
+      <c r="B13" s="6">
+        <v>189.094553674244</v>
       </c>
-      <c r="C13" s="8">
-        <v>156.17406</v>
+      <c r="C13" s="6">
+        <v>137.03200666666601</v>
       </c>
-      <c r="D13" s="8">
-        <f t="shared" si="1"/>
-        <v>889.7869691</v>
+      <c r="D13" s="6">
+        <f t="shared" si="0"/>
+        <v>724.67452924494637</v>
       </c>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="3">
-        <v>900.0</v>
+    <row r="14" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A14" s="5">
+        <v>1000</v>
       </c>
-      <c r="B14" s="17">
-        <v>189.094553674244</v>
+      <c r="B14" s="6">
+        <v>217.45468090791999</v>
       </c>
-      <c r="C14" s="8">
-        <v>137.032006666666</v>
+      <c r="C14" s="6">
+        <v>137.03200666666601</v>
       </c>
-      <c r="D14" s="8">
-        <f t="shared" si="1"/>
-        <v>724.6745292</v>
+      <c r="D14" s="6">
+        <f t="shared" si="0"/>
+        <v>630.16351772483324</v>
       </c>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="3">
-        <v>1000.0</v>
-      </c>
-      <c r="B15" s="17">
-        <v>217.45468090792</v>
-      </c>
-      <c r="C15" s="8">
-        <v>137.032006666666</v>
-      </c>
-      <c r="D15" s="8">
-        <f t="shared" si="1"/>
-        <v>630.1635177</v>
-      </c>
+    <row r="15" spans="1:18" ht="15.75" customHeight="1"/>
+    <row r="16" spans="1:18" ht="15.75" customHeight="1"/>
+    <row r="17" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="18" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="19" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="20" spans="1:2" ht="15.75" customHeight="1">
+      <c r="B20" s="2"/>
     </row>
-    <row r="16" ht="15.75" customHeight="1"/>
-    <row r="17" ht="15.75" customHeight="1"/>
-    <row r="18" ht="15.75" customHeight="1"/>
-    <row r="19" ht="15.75" customHeight="1"/>
-    <row r="20" ht="15.75" customHeight="1"/>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="B21" s="18"/>
+    <row r="21" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="22" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="23" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="24" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="25" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="26" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="27" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="28" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="29" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="30" spans="1:2" ht="15.75" customHeight="1"/>
+    <row r="31" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A31" s="3"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1"/>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="19"/>
-    </row>
+    <row r="32" spans="1:2" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -2320,12 +4864,10 @@
     <row r="994" ht="15.75" customHeight="1"/>
     <row r="995" ht="15.75" customHeight="1"/>
     <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Esercizio 1/Res/res con grafici.xlsx
+++ b/Esercizio 1/Res/res con grafici.xlsx
@@ -1,40 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leobartowski/Desktop/ASSSC/Esercizio 1/Res/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94CE65DA-7D8A-C242-B077-FFAC766F3375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E00B77C-7569-9E4E-8E79-D3019D4220CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3460" yWindow="1540" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-37140" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Foglio1!$A$4:$A$14</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Foglio1!$D$4:$D$14</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Foglio1!$A$4:$A$14</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Foglio1!$D$4:$D$14</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Foglio1!$A$4:$A$14</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Foglio1!$D$4:$D$14</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Foglio1!$A$4:$A$14</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Foglio1!$D$4:$D$14</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Foglio1!$A$4:$A$14</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Foglio1!$D$4:$D$14</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Foglio1!$A$4:$A$14</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Foglio1!$D$4:$D$14</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Foglio1!$A$4:$A$14</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Foglio1!$D$4:$D$14</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Foglio1!$A$4:$A$14</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Foglio1!$D$4:$D$14</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Foglio1!$A$4:$A$14</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Foglio1!$D$4:$D$14</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -57,7 +37,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -70,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="A8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -107,7 +87,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="[h]\.mm\.ss"/>
+    <numFmt numFmtId="164" formatCode="[h]\.mm\.ss"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -202,7 +182,7 @@
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -347,10 +327,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Foglio1!$A$4:$A$14</c:f>
+              <c:f>Foglio1!$A$4:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -358,30 +338,27 @@
                   <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>250</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>300</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>400</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>500</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>600</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>700</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>800</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>1000</c:v>
                 </c:pt>
               </c:numCache>
@@ -389,10 +366,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$C$4:$C$14</c:f>
+              <c:f>Foglio1!$C$4:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>50.0717133333333</c:v>
                 </c:pt>
@@ -400,30 +377,27 @@
                   <c:v>100.05314</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>125.00014</c:v>
+                  <c:v>149.94499999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>149.94499999999999</c:v>
+                  <c:v>185.001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>185.001</c:v>
+                  <c:v>187.465826666667</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>187.465826666667</c:v>
+                  <c:v>172.50650999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>172.50650999999999</c:v>
+                  <c:v>166.11147333333301</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>166.11147333333301</c:v>
+                  <c:v>156.17406</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>156.17406</c:v>
+                  <c:v>137.03200666666601</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>137.03200666666601</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>137.03200666666601</c:v>
                 </c:pt>
               </c:numCache>
@@ -809,10 +783,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Foglio1!$A$4:$A$14</c:f>
+              <c:f>Foglio1!$A$4:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -820,30 +794,27 @@
                   <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>250</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>300</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>400</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>500</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>600</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>700</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>800</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>1000</c:v>
                 </c:pt>
               </c:numCache>
@@ -851,10 +822,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$B$4:$B$12</c:f>
+              <c:f>Foglio1!$B$4:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
                   <c:v>35.422555555555498</c:v>
                 </c:pt>
@@ -862,24 +833,21 @@
                   <c:v>39.079944444444401</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>37.798625802207901</c:v>
+                  <c:v>22.250172279648702</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22.250172279648702</c:v>
+                  <c:v>35.153267934686298</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35.153267934686298</c:v>
+                  <c:v>117.23497717544601</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>117.23497717544601</c:v>
+                  <c:v>157.20432634173099</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>157.20432634173099</c:v>
+                  <c:v>136.00652195614299</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>136.00652195614299</c:v>
-                </c:pt>
-                <c:pt idx="8">
                   <c:v>175.51848410921301</c:v>
                 </c:pt>
               </c:numCache>
@@ -1265,10 +1233,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Foglio1!$A$4:$A$14</c:f>
+              <c:f>Foglio1!$A$4:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -1276,30 +1244,27 @@
                   <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>250</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>300</c:v>
+                  <c:v>400</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>400</c:v>
+                  <c:v>500</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>500</c:v>
+                  <c:v>600</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>600</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>700</c:v>
+                  <c:v>800</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>800</c:v>
+                  <c:v>900</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>900</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>1000</c:v>
                 </c:pt>
               </c:numCache>
@@ -1307,10 +1272,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$D$4:$D$14</c:f>
+              <c:f>Foglio1!$D$4:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1413.55451485713</c:v>
                 </c:pt>
@@ -1318,30 +1283,27 @@
                   <c:v>2560.2170479600959</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3307.0022347928448</c:v>
+                  <c:v>6739.0489437759716</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6739.0489437759716</c:v>
+                  <c:v>5262.6970654257875</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5262.6970654257875</c:v>
+                  <c:v>1599.0605464623259</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1599.0605464623259</c:v>
+                  <c:v>1097.3394563264442</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1097.3394563264442</c:v>
+                  <c:v>1221.3493216663369</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1221.3493216663369</c:v>
+                  <c:v>889.78696911958116</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>889.78696911958116</c:v>
+                  <c:v>724.67452924494637</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>724.67452924494637</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>630.16351772483324</c:v>
                 </c:pt>
               </c:numCache>
@@ -3406,7 +3368,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>306036</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>74462</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5181600" cy="2857500"/>
@@ -3437,7 +3399,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>592667</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>33867</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5181600" cy="2857500"/>
@@ -3667,10 +3629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R996"/>
+  <dimension ref="A1:R995"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="188" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="T21" sqref="T21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
@@ -3739,153 +3701,153 @@
         <v>100.05314</v>
       </c>
       <c r="D5" s="6">
-        <f t="shared" ref="D5:D14" si="0">C5/(B5/1000)</f>
+        <f t="shared" ref="D5:D13" si="0">C5/(B5/1000)</f>
         <v>2560.2170479600959</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A6" s="5">
-        <v>250</v>
-      </c>
-      <c r="B6" s="7">
-        <v>37.798625802207901</v>
-      </c>
-      <c r="C6" s="6">
-        <v>125.00014</v>
-      </c>
-      <c r="D6" s="6">
-        <f t="shared" si="0"/>
-        <v>3307.0022347928448</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A7" s="8">
+      <c r="A6" s="8">
         <v>300</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B6" s="9">
         <v>22.250172279648702</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C6" s="9">
         <v>149.94499999999999</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D6" s="9">
         <f t="shared" si="0"/>
         <v>6739.0489437759716</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A8" s="5">
+    <row r="7" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A7" s="5">
         <v>400</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B7" s="6">
         <v>35.153267934686298</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C7" s="6">
         <v>185.001</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D7" s="6">
         <f t="shared" si="0"/>
         <v>5262.6970654257875</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A9" s="10">
+    <row r="8" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A8" s="10">
         <v>500</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B8" s="11">
         <v>117.23497717544601</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C8" s="12">
         <v>187.465826666667</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D8" s="11">
         <f t="shared" si="0"/>
         <v>1599.0605464623259</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A10" s="5">
+    <row r="9" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A9" s="5">
         <v>600</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B9" s="6">
         <v>157.20432634173099</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C9" s="6">
         <v>172.50650999999999</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D9" s="6">
         <f t="shared" si="0"/>
         <v>1097.3394563264442</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A11" s="5">
+    <row r="10" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A10" s="5">
         <v>700</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B10" s="6">
         <v>136.00652195614299</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C10" s="6">
         <v>166.11147333333301</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D10" s="6">
         <f t="shared" si="0"/>
         <v>1221.3493216663369</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A12" s="5">
+    <row r="11" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A11" s="5">
         <v>800</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B11" s="6">
         <v>175.51848410921301</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C11" s="6">
         <v>156.17406</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D11" s="6">
         <f t="shared" si="0"/>
         <v>889.78696911958116</v>
       </c>
     </row>
+    <row r="12" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A12" s="5">
+        <v>900</v>
+      </c>
+      <c r="B12" s="6">
+        <v>189.094553674244</v>
+      </c>
+      <c r="C12" s="6">
+        <v>137.03200666666601</v>
+      </c>
+      <c r="D12" s="6">
+        <f t="shared" si="0"/>
+        <v>724.67452924494637</v>
+      </c>
+    </row>
     <row r="13" spans="1:18" ht="15.75" customHeight="1">
       <c r="A13" s="5">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="B13" s="6">
-        <v>189.094553674244</v>
+        <v>217.45468090791999</v>
       </c>
       <c r="C13" s="6">
         <v>137.03200666666601</v>
       </c>
       <c r="D13" s="6">
         <f t="shared" si="0"/>
-        <v>724.67452924494637</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A14" s="5">
-        <v>1000</v>
-      </c>
-      <c r="B14" s="6">
-        <v>217.45468090791999</v>
-      </c>
-      <c r="C14" s="6">
-        <v>137.03200666666601</v>
-      </c>
-      <c r="D14" s="6">
-        <f t="shared" si="0"/>
         <v>630.16351772483324</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="15.75" customHeight="1"/>
+    <row r="14" spans="1:18" ht="15.75" customHeight="1"/>
+    <row r="15" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A15" s="5">
+        <v>250</v>
+      </c>
+      <c r="B15" s="7">
+        <v>37.798625802207901</v>
+      </c>
+      <c r="C15" s="6">
+        <v>125.00014</v>
+      </c>
+      <c r="D15" s="6">
+        <f t="shared" ref="D15" si="1">C15/(B15/1000)</f>
+        <v>3307.0022347928448</v>
+      </c>
+    </row>
     <row r="16" spans="1:18" ht="15.75" customHeight="1"/>
     <row r="17" spans="1:2" ht="15.75" customHeight="1"/>
     <row r="18" spans="1:2" ht="15.75" customHeight="1"/>
-    <row r="19" spans="1:2" ht="15.75" customHeight="1"/>
-    <row r="20" spans="1:2" ht="15.75" customHeight="1">
-      <c r="B20" s="2"/>
+    <row r="19" spans="1:2" ht="15.75" customHeight="1">
+      <c r="B19" s="2"/>
     </row>
+    <row r="20" spans="1:2" ht="15.75" customHeight="1"/>
     <row r="21" spans="1:2" ht="15.75" customHeight="1"/>
     <row r="22" spans="1:2" ht="15.75" customHeight="1"/>
     <row r="23" spans="1:2" ht="15.75" customHeight="1"/>
@@ -3895,10 +3857,10 @@
     <row r="27" spans="1:2" ht="15.75" customHeight="1"/>
     <row r="28" spans="1:2" ht="15.75" customHeight="1"/>
     <row r="29" spans="1:2" ht="15.75" customHeight="1"/>
-    <row r="30" spans="1:2" ht="15.75" customHeight="1"/>
-    <row r="31" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A31" s="3"/>
+    <row r="30" spans="1:2" ht="15.75" customHeight="1">
+      <c r="A30" s="3"/>
     </row>
+    <row r="31" spans="1:2" ht="15.75" customHeight="1"/>
     <row r="32" spans="1:2" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
@@ -4863,7 +4825,6 @@
     <row r="993" ht="15.75" customHeight="1"/>
     <row r="994" ht="15.75" customHeight="1"/>
     <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>

--- a/Esercizio 1/Res/res con grafici.xlsx
+++ b/Esercizio 1/Res/res con grafici.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leobartowski/Desktop/ASSSC/Esercizio 1/Res/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E00B77C-7569-9E4E-8E79-D3019D4220CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0F0B494-55B4-0346-986D-DD5AD418FD8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-37140" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3632,7 +3632,7 @@
   <dimension ref="A1:R995"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="T21" sqref="T21"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>

--- a/Esercizio 1/Res/res con grafici.xlsx
+++ b/Esercizio 1/Res/res con grafici.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11009"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leobartowski/Desktop/ASSSC/Esercizio 1/Res/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0F0B494-55B4-0346-986D-DD5AD418FD8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E2B1226-E798-0541-8C4E-A519CB595F57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37140" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38400" yWindow="500" windowWidth="19200" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -89,7 +89,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[h]\.mm\.ss"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -140,8 +140,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -152,18 +157,6 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor theme="0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor theme="7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF73FB79"/>
-        <bgColor rgb="FFCC0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -179,7 +172,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -198,21 +191,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -256,11 +244,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -270,7 +258,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="it-IT"/>
-              <a:t>THROUGHPUT</a:t>
+              <a:t>POTENZA</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -288,11 +276,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -314,7 +302,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -323,7 +311,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -371,34 +371,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>50.0717133333333</c:v>
+                  <c:v>13.33333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100.05314</c:v>
+                  <c:v>3130.0558679999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>149.94499999999999</c:v>
+                  <c:v>4630.4411899999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>185.001</c:v>
+                  <c:v>7931.4944450000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>187.465826666667</c:v>
+                  <c:v>9220.9176910000006</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>172.50650999999999</c:v>
+                  <c:v>6230.9622339999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>166.11147333333301</c:v>
+                  <c:v>3199.6389859999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>156.17406</c:v>
+                  <c:v>2505.2842620000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>137.03200666666601</c:v>
+                  <c:v>2210.0177309999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>137.03200666666601</c:v>
+                  <c:v>1850.151396</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -418,21 +418,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:dropLines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="35000"/>
-                  <a:lumOff val="65000"/>
-                  <a:alpha val="33000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:dropLines>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="95196539"/>
         <c:axId val="1731733690"/>
@@ -451,9 +437,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="dk1">
+                      <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
                         <a:lumOff val="35000"/>
                       </a:schemeClr>
@@ -480,9 +466,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="dk1">
+                    <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
                       <a:lumOff val="35000"/>
                     </a:schemeClr>
@@ -504,7 +490,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="dk1">
+              <a:schemeClr val="tx1">
                 <a:lumMod val="15000"/>
                 <a:lumOff val="85000"/>
               </a:schemeClr>
@@ -518,9 +504,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="dk1">
+                  <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
@@ -547,6 +533,20 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -554,9 +554,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="dk1">
+                      <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
                         <a:lumOff val="35000"/>
                       </a:schemeClr>
@@ -583,9 +583,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="dk1">
+                    <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
                       <a:lumOff val="35000"/>
                     </a:schemeClr>
@@ -615,9 +615,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="dk1">
+                  <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
@@ -635,19 +635,7 @@
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="lt1">
-                <a:lumMod val="95000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="lt1"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
+        <a:noFill/>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -660,11 +648,11 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="dk1">
+        <a:schemeClr val="tx1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -712,11 +700,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -726,7 +714,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="it-IT"/>
-              <a:t>ELAPSED</a:t>
+              <a:t>ELAPSED TIME</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -744,11 +732,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -770,7 +758,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -779,7 +767,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -822,33 +822,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$B$4:$B$11</c:f>
+              <c:f>Foglio1!$B$4:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>35.422555555555498</c:v>
+                  <c:v>14.33333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>39.079944444444401</c:v>
+                  <c:v>10.33333333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22.250172279648702</c:v>
+                  <c:v>12.33333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35.153267934686298</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>117.23497717544601</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>157.20432634173099</c:v>
+                  <c:v>31.666666670000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>136.00652195614299</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>175.51848410921301</c:v>
+                  <c:v>67.333333330000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>72.333333330000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>78.666666669999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -868,21 +874,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:dropLines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="35000"/>
-                  <a:lumOff val="65000"/>
-                  <a:alpha val="33000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:dropLines>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="2139242496"/>
         <c:axId val="1183346998"/>
@@ -901,9 +893,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="dk1">
+                      <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
                         <a:lumOff val="35000"/>
                       </a:schemeClr>
@@ -930,9 +922,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="dk1">
+                    <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
                       <a:lumOff val="35000"/>
                     </a:schemeClr>
@@ -954,7 +946,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="dk1">
+              <a:schemeClr val="tx1">
                 <a:lumMod val="15000"/>
                 <a:lumOff val="85000"/>
               </a:schemeClr>
@@ -968,9 +960,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="dk1">
+                  <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
@@ -997,6 +989,20 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1004,9 +1010,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="dk1">
+                      <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
                         <a:lumOff val="35000"/>
                       </a:schemeClr>
@@ -1033,9 +1039,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="dk1">
+                    <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
                       <a:lumOff val="35000"/>
                     </a:schemeClr>
@@ -1065,9 +1071,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="dk1">
+                  <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
@@ -1085,19 +1091,7 @@
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="lt1">
-                <a:lumMod val="95000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="lt1"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
+        <a:noFill/>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -1110,11 +1104,11 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="dk1">
+        <a:schemeClr val="tx1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -1162,11 +1156,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1176,7 +1170,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="it-IT"/>
-              <a:t>POTENZA</a:t>
+              <a:t>THROUGHPUT</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1194,11 +1188,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -1220,7 +1214,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -1229,7 +1223,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -1277,34 +1283,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1413.55451485713</c:v>
+                  <c:v>12.33333333</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2560.2170479600959</c:v>
+                  <c:v>100.01846</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6739.0489437759716</c:v>
+                  <c:v>141.66698</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5262.6970654257875</c:v>
+                  <c:v>198.39012500000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1599.0605464623259</c:v>
+                  <c:v>247.22620330000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1097.3394563264442</c:v>
+                  <c:v>266.30547000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1221.3493216663369</c:v>
+                  <c:v>277.39233999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>889.78696911958116</c:v>
+                  <c:v>255.1759533</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>724.67452924494637</c:v>
+                  <c:v>248.42789329999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>630.16351772483324</c:v>
+                  <c:v>231.76929000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1324,21 +1330,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:dropLines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="35000"/>
-                  <a:lumOff val="65000"/>
-                  <a:alpha val="33000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:dropLines>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="95196539"/>
         <c:axId val="1731733690"/>
@@ -1357,9 +1349,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="dk1">
+                      <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
                         <a:lumOff val="35000"/>
                       </a:schemeClr>
@@ -1386,9 +1378,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="dk1">
+                    <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
                       <a:lumOff val="35000"/>
                     </a:schemeClr>
@@ -1410,7 +1402,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="dk1">
+              <a:schemeClr val="tx1">
                 <a:lumMod val="15000"/>
                 <a:lumOff val="85000"/>
               </a:schemeClr>
@@ -1424,9 +1416,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="dk1">
+                  <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
@@ -1453,6 +1445,20 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1460,9 +1466,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="dk1">
+                      <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
                         <a:lumOff val="35000"/>
                       </a:schemeClr>
@@ -1489,9 +1495,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="dk1">
+                    <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
                       <a:lumOff val="35000"/>
                     </a:schemeClr>
@@ -1521,9 +1527,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="dk1">
+                  <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
@@ -1541,19 +1547,7 @@
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="100000">
-              <a:schemeClr val="lt1">
-                <a:lumMod val="95000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="0">
-              <a:schemeClr val="lt1"/>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
+        <a:noFill/>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -1566,11 +1560,11 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="dk1">
+        <a:schemeClr val="tx1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -1718,25 +1712,25 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="230">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" cap="all"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -1744,7 +1738,7 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -1752,22 +1746,22 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" b="0" kern="1200" spc="20" baseline="0"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="bg1"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -1775,16 +1769,16 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1818,60 +1812,36 @@
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1883,34 +1853,30 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -1926,19 +1892,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -1953,13 +1921,13 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
@@ -1972,15 +1940,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
-            <a:alpha val="33000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1992,16 +1959,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:errorBar>
@@ -2010,24 +1978,31 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMajor>
@@ -2036,16 +2011,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -2054,133 +2030,109 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill>
-        <a:gsLst>
-          <a:gs pos="100000">
-            <a:schemeClr val="lt1">
-              <a:lumMod val="95000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="0">
-            <a:schemeClr val="lt1"/>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="5400000" scaled="0"/>
-      </a:gradFill>
-    </cs:spPr>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -2189,13 +2141,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -2204,7 +2157,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -2224,9 +2177,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -2237,44 +2190,50 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" spc="20" baseline="0"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="230">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" cap="all"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -2282,7 +2241,7 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -2290,22 +2249,22 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" b="0" kern="1200" spc="20" baseline="0"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="bg1"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -2313,16 +2272,16 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2356,60 +2315,36 @@
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -2421,34 +2356,30 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -2464,19 +2395,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2491,13 +2424,13 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
@@ -2510,15 +2443,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
-            <a:alpha val="33000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2530,16 +2462,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:errorBar>
@@ -2548,24 +2481,31 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMajor>
@@ -2574,16 +2514,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -2592,133 +2533,109 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill>
-        <a:gsLst>
-          <a:gs pos="100000">
-            <a:schemeClr val="lt1">
-              <a:lumMod val="95000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="0">
-            <a:schemeClr val="lt1"/>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="5400000" scaled="0"/>
-      </a:gradFill>
-    </cs:spPr>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -2727,13 +2644,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -2742,7 +2660,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -2762,9 +2680,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -2775,44 +2693,50 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" spc="20" baseline="0"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="230">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" cap="all"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -2820,7 +2744,7 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -2828,22 +2752,22 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" b="0" kern="1200" spc="20" baseline="0"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="bg1"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -2851,16 +2775,16 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -2894,60 +2818,36 @@
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -2959,34 +2859,30 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -3002,19 +2898,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3029,13 +2927,13 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
@@ -3048,15 +2946,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="dk1">
+          <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
-            <a:alpha val="33000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3068,16 +2965,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:errorBar>
@@ -3086,24 +2984,31 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMajor>
@@ -3112,16 +3017,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -3130,133 +3036,109 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill>
-        <a:gsLst>
-          <a:gs pos="100000">
-            <a:schemeClr val="lt1">
-              <a:lumMod val="95000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="0">
-            <a:schemeClr val="lt1"/>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="5400000" scaled="0"/>
-      </a:gradFill>
-    </cs:spPr>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -3265,13 +3147,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -3280,7 +3163,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -3300,9 +3183,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -3313,20 +3196,26 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
+      <a:schemeClr val="tx1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" spc="20" baseline="0"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -3367,9 +3256,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>306036</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>74462</xdr:rowOff>
+      <xdr:colOff>224756</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>125262</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5181600" cy="2857500"/>
     <xdr:graphicFrame macro="">
@@ -3397,10 +3286,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>592667</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>13547</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>33867</xdr:rowOff>
+      <xdr:rowOff>13547</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5181600" cy="2857500"/>
     <xdr:graphicFrame macro="">
@@ -3631,8 +3520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R995"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="157" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1"/>
@@ -3667,24 +3556,24 @@
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>2</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="15.75" customHeight="1">
       <c r="A4" s="5">
         <v>100</v>
       </c>
-      <c r="B4" s="5">
-        <v>35.422555555555498</v>
-      </c>
-      <c r="C4" s="6">
-        <v>50.0717133333333</v>
-      </c>
-      <c r="D4" s="6">
-        <v>1413.55451485713</v>
+      <c r="B4" s="8">
+        <v>14.33333333</v>
+      </c>
+      <c r="C4" s="8">
+        <v>13.33333333</v>
+      </c>
+      <c r="D4" s="8">
+        <v>12.33333333</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -3694,135 +3583,126 @@
       <c r="A5" s="5">
         <v>200</v>
       </c>
-      <c r="B5" s="6">
-        <v>39.079944444444401</v>
-      </c>
-      <c r="C5" s="6">
-        <v>100.05314</v>
-      </c>
-      <c r="D5" s="6">
-        <f t="shared" ref="D5:D13" si="0">C5/(B5/1000)</f>
-        <v>2560.2170479600959</v>
+      <c r="B5" s="8">
+        <v>10.33333333</v>
+      </c>
+      <c r="C5" s="8">
+        <v>3130.0558679999999</v>
+      </c>
+      <c r="D5" s="8">
+        <v>100.01846</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A6" s="8">
+    <row r="6" spans="1:18" s="11" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A6" s="9">
         <v>300</v>
       </c>
-      <c r="B6" s="9">
-        <v>22.250172279648702</v>
-      </c>
-      <c r="C6" s="9">
-        <v>149.94499999999999</v>
-      </c>
-      <c r="D6" s="9">
-        <f t="shared" si="0"/>
-        <v>6739.0489437759716</v>
+      <c r="B6" s="10">
+        <v>12.33333333</v>
+      </c>
+      <c r="C6" s="10">
+        <v>4630.4411899999996</v>
+      </c>
+      <c r="D6" s="10">
+        <v>141.66698</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="15.75" customHeight="1">
+    <row r="7" spans="1:18" ht="14" customHeight="1">
       <c r="A7" s="5">
         <v>400</v>
       </c>
-      <c r="B7" s="6">
-        <v>35.153267934686298</v>
-      </c>
-      <c r="C7" s="6">
-        <v>185.001</v>
-      </c>
-      <c r="D7" s="6">
-        <f t="shared" si="0"/>
-        <v>5262.6970654257875</v>
+      <c r="B7" s="8">
+        <v>12</v>
+      </c>
+      <c r="C7" s="8">
+        <v>7931.4944450000003</v>
+      </c>
+      <c r="D7" s="8">
+        <v>198.39012500000001</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A8" s="10">
+    <row r="8" spans="1:18" s="11" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A8" s="9">
         <v>500</v>
       </c>
-      <c r="B8" s="11">
-        <v>117.23497717544601</v>
-      </c>
-      <c r="C8" s="12">
-        <v>187.465826666667</v>
-      </c>
-      <c r="D8" s="11">
-        <f t="shared" si="0"/>
-        <v>1599.0605464623259</v>
+      <c r="B8" s="10">
+        <v>16</v>
+      </c>
+      <c r="C8" s="10">
+        <v>9220.9176910000006</v>
+      </c>
+      <c r="D8" s="10">
+        <v>247.22620330000001</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="15.75" customHeight="1">
       <c r="A9" s="5">
         <v>600</v>
       </c>
-      <c r="B9" s="6">
-        <v>157.20432634173099</v>
-      </c>
-      <c r="C9" s="6">
-        <v>172.50650999999999</v>
-      </c>
-      <c r="D9" s="6">
-        <f t="shared" si="0"/>
-        <v>1097.3394563264442</v>
+      <c r="B9" s="8">
+        <v>31.666666670000001</v>
+      </c>
+      <c r="C9" s="8">
+        <v>6230.9622339999996</v>
+      </c>
+      <c r="D9" s="8">
+        <v>266.30547000000001</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="15.75" customHeight="1">
       <c r="A10" s="5">
         <v>700</v>
       </c>
-      <c r="B10" s="6">
-        <v>136.00652195614299</v>
-      </c>
-      <c r="C10" s="6">
-        <v>166.11147333333301</v>
-      </c>
-      <c r="D10" s="6">
-        <f t="shared" si="0"/>
-        <v>1221.3493216663369</v>
+      <c r="B10" s="8">
+        <v>57</v>
+      </c>
+      <c r="C10" s="8">
+        <v>3199.6389859999999</v>
+      </c>
+      <c r="D10" s="8">
+        <v>277.39233999999999</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="15.75" customHeight="1">
       <c r="A11" s="5">
         <v>800</v>
       </c>
-      <c r="B11" s="6">
-        <v>175.51848410921301</v>
-      </c>
-      <c r="C11" s="6">
-        <v>156.17406</v>
-      </c>
-      <c r="D11" s="6">
-        <f t="shared" si="0"/>
-        <v>889.78696911958116</v>
+      <c r="B11" s="8">
+        <v>67.333333330000002</v>
+      </c>
+      <c r="C11" s="8">
+        <v>2505.2842620000001</v>
+      </c>
+      <c r="D11" s="8">
+        <v>255.1759533</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="15.75" customHeight="1">
       <c r="A12" s="5">
         <v>900</v>
       </c>
-      <c r="B12" s="6">
-        <v>189.094553674244</v>
-      </c>
-      <c r="C12" s="6">
-        <v>137.03200666666601</v>
-      </c>
-      <c r="D12" s="6">
-        <f t="shared" si="0"/>
-        <v>724.67452924494637</v>
+      <c r="B12" s="8">
+        <v>72.333333330000002</v>
+      </c>
+      <c r="C12" s="8">
+        <v>2210.0177309999999</v>
+      </c>
+      <c r="D12" s="8">
+        <v>248.42789329999999</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="15.75" customHeight="1">
       <c r="A13" s="5">
         <v>1000</v>
       </c>
-      <c r="B13" s="6">
-        <v>217.45468090791999</v>
-      </c>
-      <c r="C13" s="6">
-        <v>137.03200666666601</v>
-      </c>
-      <c r="D13" s="6">
-        <f t="shared" si="0"/>
-        <v>630.16351772483324</v>
+      <c r="B13" s="8">
+        <v>78.666666669999998</v>
+      </c>
+      <c r="C13" s="8">
+        <v>1850.151396</v>
+      </c>
+      <c r="D13" s="8">
+        <v>231.76929000000001</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="15.75" customHeight="1"/>
@@ -3837,7 +3717,7 @@
         <v>125.00014</v>
       </c>
       <c r="D15" s="6">
-        <f t="shared" ref="D15" si="1">C15/(B15/1000)</f>
+        <f t="shared" ref="D15" si="0">C15/(B15/1000)</f>
         <v>3307.0022347928448</v>
       </c>
     </row>
@@ -3862,22 +3742,26 @@
     </row>
     <row r="31" spans="1:2" ht="15.75" customHeight="1"/>
     <row r="32" spans="1:2" ht="15.75" customHeight="1"/>
-    <row r="33" ht="15.75" customHeight="1"/>
-    <row r="34" ht="15.75" customHeight="1"/>
-    <row r="35" ht="15.75" customHeight="1"/>
-    <row r="36" ht="15.75" customHeight="1"/>
-    <row r="37" ht="15.75" customHeight="1"/>
-    <row r="38" ht="15.75" customHeight="1"/>
-    <row r="39" ht="15.75" customHeight="1"/>
-    <row r="40" ht="15.75" customHeight="1"/>
-    <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1"/>
-    <row r="43" ht="15.75" customHeight="1"/>
-    <row r="44" ht="15.75" customHeight="1"/>
-    <row r="45" ht="15.75" customHeight="1"/>
-    <row r="46" ht="15.75" customHeight="1"/>
-    <row r="47" ht="15.75" customHeight="1"/>
-    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="33" spans="4:4" ht="15.75" customHeight="1"/>
+    <row r="34" spans="4:4" ht="15.75" customHeight="1"/>
+    <row r="35" spans="4:4" ht="15.75" customHeight="1"/>
+    <row r="36" spans="4:4" ht="15.75" customHeight="1"/>
+    <row r="37" spans="4:4" ht="15.75" customHeight="1">
+      <c r="D37" s="8">
+        <v>266.30547000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="4:4" ht="15.75" customHeight="1"/>
+    <row r="39" spans="4:4" ht="15.75" customHeight="1"/>
+    <row r="40" spans="4:4" ht="15.75" customHeight="1"/>
+    <row r="41" spans="4:4" ht="15.75" customHeight="1"/>
+    <row r="42" spans="4:4" ht="15.75" customHeight="1"/>
+    <row r="43" spans="4:4" ht="15.75" customHeight="1"/>
+    <row r="44" spans="4:4" ht="15.75" customHeight="1"/>
+    <row r="45" spans="4:4" ht="15.75" customHeight="1"/>
+    <row r="46" spans="4:4" ht="15.75" customHeight="1"/>
+    <row r="47" spans="4:4" ht="15.75" customHeight="1"/>
+    <row r="48" spans="4:4" ht="15.75" customHeight="1"/>
     <row r="49" ht="15.75" customHeight="1"/>
     <row r="50" ht="15.75" customHeight="1"/>
     <row r="51" ht="15.75" customHeight="1"/>
